--- a/ig/sd-exemple-030/ValueSet-eclaire-reglementation-precision-vs.xlsx
+++ b/ig/sd-exemple-030/ValueSet-eclaire-reglementation-precision-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T16:58:17+00:00</t>
+    <t>2024-02-23T17:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
